--- a/src/crispr_screen_viewer/tests/test_data/flat_style/details/test2.xlsx
+++ b/src/crispr_screen_viewer/tests/test_data/flat_style/details/test2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas03/python_projects/crispr_screen_viewer/src/crispr_screen_viewer/tests/test_data/exorcise_style/test2/re/det/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas03/python_projects/crispr_screen_viewer/src/crispr_screen_viewer/tests/test_data/flat_style/details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB155C-CE1F-334D-9301-45BDAF288A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807F35E-B8D1-0B48-83D1-9C32E448392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23980" yWindow="13280" windowWidth="33500" windowHeight="20500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23980" yWindow="13280" windowWidth="33500" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>Library</t>
   </si>
@@ -302,12 +302,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>analysis_version</t>
-  </si>
-  <si>
-    <t>file_prefix</t>
-  </si>
-  <si>
     <t>Contrast</t>
   </si>
   <si>
@@ -326,9 +320,6 @@
     <t>these are notes</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>ctrlrep1</t>
   </si>
   <si>
@@ -420,9 +411,6 @@
   </si>
   <si>
     <t>anymore</t>
-  </si>
-  <si>
-    <t>re/res</t>
   </si>
   <si>
     <t>Organism</t>
@@ -1513,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1530,7 +1518,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20">
@@ -1538,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20">
@@ -1546,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20">
@@ -1554,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20">
@@ -1562,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="40">
@@ -1570,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20">
@@ -1578,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="20">
@@ -1586,7 +1574,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20">
@@ -1594,31 +1582,15 @@
         <v>28</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20">
-      <c r="A11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20">
-      <c r="A12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1694,101 +1666,101 @@
     </row>
     <row r="2" spans="1:12" ht="22" customHeight="1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -1797,22 +1769,22 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="19">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1821,89 +1793,89 @@
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1938,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5852547F-8F24-4C5C-A576-33824D0B5E92}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1960,39 +1932,39 @@
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -2000,58 +1972,58 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -2115,62 +2087,62 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="11">
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
